--- a/net_demo3_stest1.xlsx
+++ b/net_demo3_stest1.xlsx
@@ -10,22 +10,23 @@
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
     <sheet name="bus" sheetId="2" r:id="rId2"/>
     <sheet name="sgen" sheetId="3" r:id="rId3"/>
-    <sheet name="ext_grid" sheetId="4" r:id="rId4"/>
-    <sheet name="line" sheetId="5" r:id="rId5"/>
-    <sheet name="measurement" sheetId="6" r:id="rId6"/>
-    <sheet name="line_std_types" sheetId="7" r:id="rId7"/>
-    <sheet name="trafo_std_types" sheetId="8" r:id="rId8"/>
-    <sheet name="trafo3w_std_types" sheetId="9" r:id="rId9"/>
-    <sheet name="res_bus_est" sheetId="10" r:id="rId10"/>
-    <sheet name="res_line_est" sheetId="11" r:id="rId11"/>
-    <sheet name="dtypes" sheetId="12" r:id="rId12"/>
+    <sheet name="switch" sheetId="4" r:id="rId4"/>
+    <sheet name="ext_grid" sheetId="5" r:id="rId5"/>
+    <sheet name="line" sheetId="6" r:id="rId6"/>
+    <sheet name="measurement" sheetId="7" r:id="rId7"/>
+    <sheet name="line_std_types" sheetId="8" r:id="rId8"/>
+    <sheet name="trafo_std_types" sheetId="9" r:id="rId9"/>
+    <sheet name="trafo3w_std_types" sheetId="10" r:id="rId10"/>
+    <sheet name="res_bus_est" sheetId="11" r:id="rId11"/>
+    <sheet name="res_line_est" sheetId="12" r:id="rId12"/>
+    <sheet name="dtypes" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="197">
   <si>
     <t>version</t>
   </si>
@@ -108,6 +109,30 @@
     <t>wye</t>
   </si>
   <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>z_ohm</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>test_sw_l1</t>
+  </si>
+  <si>
+    <t>test_sw_l2</t>
+  </si>
+  <si>
     <t>vm_pu</t>
   </si>
   <si>
@@ -159,9 +184,6 @@
     <t>element_type</t>
   </si>
   <si>
-    <t>element</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -565,6 +587,9 @@
   </si>
   <si>
     <t>sgen</t>
+  </si>
+  <si>
+    <t>switch</t>
   </si>
   <si>
     <t>ext_grid</t>
@@ -996,6 +1021,229 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>110</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10.4</v>
+      </c>
+      <c r="I2">
+        <v>10.4</v>
+      </c>
+      <c r="J2">
+        <v>10.4</v>
+      </c>
+      <c r="K2">
+        <v>0.28</v>
+      </c>
+      <c r="L2">
+        <v>0.32</v>
+      </c>
+      <c r="M2">
+        <v>0.35</v>
+      </c>
+      <c r="N2">
+        <v>35</v>
+      </c>
+      <c r="O2">
+        <v>0.89</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>-10</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>110</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10.4</v>
+      </c>
+      <c r="I3">
+        <v>10.4</v>
+      </c>
+      <c r="J3">
+        <v>10.4</v>
+      </c>
+      <c r="K3">
+        <v>0.28</v>
+      </c>
+      <c r="L3">
+        <v>0.32</v>
+      </c>
+      <c r="M3">
+        <v>0.35</v>
+      </c>
+      <c r="N3">
+        <v>35</v>
+      </c>
+      <c r="O3">
+        <v>0.89</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>169</v>
+      </c>
+      <c r="S3" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>-10</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1004,10 +1252,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -1072,7 +1320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -1082,51 +1330,51 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0.8928922057150006</v>
@@ -1173,7 +1421,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1.170955289018439</v>
@@ -1220,7 +1468,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.3858555424212559</v>
@@ -1270,9 +1518,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1280,13 +1528,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1300,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1314,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1328,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1342,7 +1590,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1356,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1364,13 +1612,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1378,13 +1626,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1392,13 +1640,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1406,13 +1654,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1420,13 +1668,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1434,13 +1682,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1448,13 +1696,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1462,13 +1710,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1476,13 +1724,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1490,13 +1738,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1504,13 +1752,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1518,13 +1766,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1532,13 +1780,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1546,13 +1794,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1560,13 +1808,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1574,13 +1822,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1588,13 +1836,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1602,13 +1850,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1616,13 +1864,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1630,13 +1878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1644,13 +1892,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1658,13 +1906,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1672,13 +1920,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1686,13 +1934,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1700,13 +1948,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1714,13 +1962,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1728,13 +1976,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1742,13 +1990,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1756,13 +2004,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1770,13 +2018,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1784,13 +2032,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1798,13 +2046,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1812,13 +2060,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1826,13 +2074,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1840,13 +2088,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1854,13 +2102,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1868,13 +2116,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1882,13 +2130,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1896,13 +2144,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1910,13 +2158,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1924,13 +2172,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1938,13 +2186,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1952,13 +2200,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1966,13 +2214,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1980,13 +2228,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1994,13 +2242,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2008,13 +2256,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2022,13 +2270,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2036,13 +2284,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2050,13 +2298,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2064,13 +2312,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2078,13 +2326,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2092,13 +2340,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2106,13 +2354,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C60" t="s">
         <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2120,13 +2368,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
         <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2134,13 +2382,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
         <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2148,13 +2396,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
         <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2162,13 +2410,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
         <v>174</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2176,13 +2424,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C65" t="s">
         <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2190,13 +2438,111 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
         <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2379,6 +2725,146 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2393,13 +2879,13 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -2410,7 +2896,7 @@
         <v>10000</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2433,7 +2919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -2446,37 +2932,37 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -2487,7 +2973,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2525,7 +3011,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2563,7 +3049,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2604,7 +3090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2617,22 +3103,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2640,10 +3126,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -2663,10 +3149,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -2686,10 +3172,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -2709,16 +3195,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0.888</v>
@@ -2735,16 +3221,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1.173</v>
@@ -2761,16 +3247,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0.5679999999999999</v>
@@ -2787,16 +3273,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0.663</v>
@@ -2813,16 +3299,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2839,7 +3325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H52"/>
   <sheetViews>
@@ -2849,30 +3335,30 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>210</v>
@@ -2887,7 +3373,7 @@
         <v>0.142</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -2898,7 +3384,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>264</v>
@@ -2913,7 +3399,7 @@
         <v>0.242</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G3">
         <v>120</v>
@@ -2924,7 +3410,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>261</v>
@@ -2939,7 +3425,7 @@
         <v>0.27</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G4">
         <v>150</v>
@@ -2950,7 +3436,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>216</v>
@@ -2965,7 +3451,7 @@
         <v>0.252</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G5">
         <v>95</v>
@@ -2976,7 +3462,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>273</v>
@@ -2991,7 +3477,7 @@
         <v>0.362</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G6">
         <v>185</v>
@@ -3002,7 +3488,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>304</v>
@@ -3017,7 +3503,7 @@
         <v>0.421</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G7">
         <v>240</v>
@@ -3028,7 +3514,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>315</v>
@@ -3043,7 +3529,7 @@
         <v>0.249</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G8">
         <v>95</v>
@@ -3054,7 +3540,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>406</v>
@@ -3069,7 +3555,7 @@
         <v>0.358</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G9">
         <v>185</v>
@@ -3080,7 +3566,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>456</v>
@@ -3095,7 +3581,7 @@
         <v>0.416</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G10">
         <v>240</v>
@@ -3106,7 +3592,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>250</v>
@@ -3121,7 +3607,7 @@
         <v>0.319</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G11">
         <v>150</v>
@@ -3132,7 +3618,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>230</v>
@@ -3147,7 +3633,7 @@
         <v>0.283</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G12">
         <v>120</v>
@@ -3158,7 +3644,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>190</v>
@@ -3173,7 +3659,7 @@
         <v>0.22</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G13">
         <v>70</v>
@@ -3184,7 +3670,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>360</v>
@@ -3199,7 +3685,7 @@
         <v>0.315</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G14">
         <v>150</v>
@@ -3210,7 +3696,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>340</v>
@@ -3225,7 +3711,7 @@
         <v>0.28</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G15">
         <v>120</v>
@@ -3236,7 +3722,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>280</v>
@@ -3251,7 +3737,7 @@
         <v>0.217</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G16">
         <v>70</v>
@@ -3262,7 +3748,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>112</v>
@@ -3277,7 +3763,7 @@
         <v>0.366</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G17">
         <v>120</v>
@@ -3288,7 +3774,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>125</v>
@@ -3303,7 +3789,7 @@
         <v>0.457</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G18">
         <v>185</v>
@@ -3314,7 +3800,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>135</v>
@@ -3329,7 +3815,7 @@
         <v>0.526</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G19">
         <v>240</v>
@@ -3340,7 +3826,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B20">
         <v>144</v>
@@ -3355,7 +3841,7 @@
         <v>0.588</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G20">
         <v>300</v>
@@ -3366,7 +3852,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -3381,7 +3867,7 @@
         <v>0.105</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -3392,7 +3878,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B22">
         <v>11.25</v>
@@ -3407,7 +3893,7 @@
         <v>0.14</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G22">
         <v>24</v>
@@ -3418,7 +3904,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <v>12.2</v>
@@ -3433,7 +3919,7 @@
         <v>0.21</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G23">
         <v>48</v>
@@ -3444,7 +3930,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <v>13.2</v>
@@ -3459,7 +3945,7 @@
         <v>0.35</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G24">
         <v>94</v>
@@ -3470,7 +3956,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B25">
         <v>9.699999999999999</v>
@@ -3485,7 +3971,7 @@
         <v>0.17</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G25">
         <v>34</v>
@@ -3496,7 +3982,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B26">
         <v>10.1</v>
@@ -3511,7 +3997,7 @@
         <v>0.21</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G26">
         <v>48</v>
@@ -3522,7 +4008,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B27">
         <v>10.4</v>
@@ -3537,7 +4023,7 @@
         <v>0.29</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G27">
         <v>70</v>
@@ -3548,7 +4034,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B28">
         <v>10.75</v>
@@ -3563,7 +4049,7 @@
         <v>0.35</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G28">
         <v>94</v>
@@ -3574,7 +4060,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>11.1</v>
@@ -3589,7 +4075,7 @@
         <v>0.41</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G29">
         <v>122</v>
@@ -3600,7 +4086,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B30">
         <v>11.25</v>
@@ -3615,7 +4101,7 @@
         <v>0.47</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G30">
         <v>149</v>
@@ -3626,7 +4112,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B31">
         <v>9.15</v>
@@ -3641,7 +4127,7 @@
         <v>0.17</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G31">
         <v>34</v>
@@ -3652,7 +4138,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B32">
         <v>9.5</v>
@@ -3667,7 +4153,7 @@
         <v>0.21</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G32">
         <v>48</v>
@@ -3678,7 +4164,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B33">
         <v>9.699999999999999</v>
@@ -3693,7 +4179,7 @@
         <v>0.29</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G33">
         <v>70</v>
@@ -3704,7 +4190,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -3719,7 +4205,7 @@
         <v>0.35</v>
       </c>
       <c r="F34" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G34">
         <v>94</v>
@@ -3730,7 +4216,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B35">
         <v>10.3</v>
@@ -3745,7 +4231,7 @@
         <v>0.41</v>
       </c>
       <c r="F35" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G35">
         <v>122</v>
@@ -3756,7 +4242,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B36">
         <v>10.5</v>
@@ -3771,7 +4257,7 @@
         <v>0.47</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G36">
         <v>149</v>
@@ -3782,7 +4268,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B37">
         <v>10.75</v>
@@ -3797,7 +4283,7 @@
         <v>0.535</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G37">
         <v>184</v>
@@ -3808,7 +4294,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B38">
         <v>11</v>
@@ -3823,7 +4309,7 @@
         <v>0.645</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G38">
         <v>243</v>
@@ -3834,7 +4320,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -3849,7 +4335,7 @@
         <v>0.21</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G39">
         <v>48</v>
@@ -3860,7 +4346,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B40">
         <v>8.4</v>
@@ -3875,7 +4361,7 @@
         <v>0.29</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G40">
         <v>70</v>
@@ -3886,7 +4372,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B41">
         <v>8.65</v>
@@ -3901,7 +4387,7 @@
         <v>0.35</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G41">
         <v>94</v>
@@ -3912,7 +4398,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B42">
         <v>8.5</v>
@@ -3927,7 +4413,7 @@
         <v>0.41</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G42">
         <v>122</v>
@@ -3938,7 +4424,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B43">
         <v>8.75</v>
@@ -3953,7 +4439,7 @@
         <v>0.47</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G43">
         <v>149</v>
@@ -3964,7 +4450,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B44">
         <v>8.800000000000001</v>
@@ -3979,7 +4465,7 @@
         <v>0.535</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G44">
         <v>184</v>
@@ -3990,7 +4476,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -4005,7 +4491,7 @@
         <v>0.645</v>
       </c>
       <c r="F45" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G45">
         <v>243</v>
@@ -4016,7 +4502,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B46">
         <v>9.199999999999999</v>
@@ -4031,7 +4517,7 @@
         <v>0.74</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G46">
         <v>305</v>
@@ -4042,7 +4528,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B47">
         <v>9.75</v>
@@ -4057,7 +4543,7 @@
         <v>0.96</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G47">
         <v>490</v>
@@ -4068,7 +4554,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B48">
         <v>9.949999999999999</v>
@@ -4083,7 +4569,7 @@
         <v>1.15</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G48">
         <v>679</v>
@@ -4094,7 +4580,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -4109,7 +4595,7 @@
         <v>0.96</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G49">
         <v>490</v>
@@ -4120,7 +4606,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B50">
         <v>11.7</v>
@@ -4135,7 +4621,7 @@
         <v>1.15</v>
       </c>
       <c r="F50" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G50">
         <v>679</v>
@@ -4146,7 +4632,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -4161,7 +4647,7 @@
         <v>0.96</v>
       </c>
       <c r="F51" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G51">
         <v>490</v>
@@ -4172,7 +4658,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B52">
         <v>14.6</v>
@@ -4187,7 +4673,7 @@
         <v>1.15</v>
       </c>
       <c r="F52" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G52">
         <v>679</v>
@@ -4201,7 +4687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q15"/>
   <sheetViews>
@@ -4211,57 +4697,57 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B2">
         <v>0.06</v>
@@ -4288,10 +4774,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4314,7 +4800,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B3">
         <v>0.06</v>
@@ -4341,10 +4827,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -4367,7 +4853,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B4">
         <v>0.04</v>
@@ -4394,10 +4880,10 @@
         <v>150</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -4420,7 +4906,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B5">
         <v>0.05</v>
@@ -4447,10 +4933,10 @@
         <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4473,7 +4959,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B6">
         <v>0.07000000000000001</v>
@@ -4500,10 +4986,10 @@
         <v>150</v>
       </c>
       <c r="J6" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -4526,7 +5012,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B7">
         <v>0.04</v>
@@ -4553,10 +5039,10 @@
         <v>150</v>
       </c>
       <c r="J7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -4579,7 +5065,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B8">
         <v>0.05</v>
@@ -4606,10 +5092,10 @@
         <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K8" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4632,7 +5118,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B9">
         <v>0.07000000000000001</v>
@@ -4659,10 +5145,10 @@
         <v>150</v>
       </c>
       <c r="J9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4685,7 +5171,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B10">
         <v>0.32</v>
@@ -4712,10 +5198,10 @@
         <v>150</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K10" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4738,7 +5224,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B11">
         <v>0.3375</v>
@@ -4765,10 +5251,10 @@
         <v>150</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K11" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4791,7 +5277,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B12">
         <v>0.2619</v>
@@ -4818,10 +5304,10 @@
         <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4844,7 +5330,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B13">
         <v>0.24</v>
@@ -4871,10 +5357,10 @@
         <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -4897,7 +5383,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B14">
         <v>0.2375</v>
@@ -4924,10 +5410,10 @@
         <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -4950,7 +5436,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B15">
         <v>0.1873</v>
@@ -4977,10 +5463,10 @@
         <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -4999,229 +5485,6 @@
       </c>
       <c r="Q15" t="b">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:23">
-      <c r="B1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2">
-        <v>63</v>
-      </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>38</v>
-      </c>
-      <c r="E2">
-        <v>110</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>10.4</v>
-      </c>
-      <c r="I2">
-        <v>10.4</v>
-      </c>
-      <c r="J2">
-        <v>10.4</v>
-      </c>
-      <c r="K2">
-        <v>0.28</v>
-      </c>
-      <c r="L2">
-        <v>0.32</v>
-      </c>
-      <c r="M2">
-        <v>0.35</v>
-      </c>
-      <c r="N2">
-        <v>35</v>
-      </c>
-      <c r="O2">
-        <v>0.89</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>162</v>
-      </c>
-      <c r="S2" t="s">
-        <v>147</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>-10</v>
-      </c>
-      <c r="V2">
-        <v>10</v>
-      </c>
-      <c r="W2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3">
-        <v>63</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>38</v>
-      </c>
-      <c r="E3">
-        <v>110</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>10.4</v>
-      </c>
-      <c r="I3">
-        <v>10.4</v>
-      </c>
-      <c r="J3">
-        <v>10.4</v>
-      </c>
-      <c r="K3">
-        <v>0.28</v>
-      </c>
-      <c r="L3">
-        <v>0.32</v>
-      </c>
-      <c r="M3">
-        <v>0.35</v>
-      </c>
-      <c r="N3">
-        <v>35</v>
-      </c>
-      <c r="O3">
-        <v>0.89</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>162</v>
-      </c>
-      <c r="S3" t="s">
-        <v>147</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>-10</v>
-      </c>
-      <c r="V3">
-        <v>10</v>
-      </c>
-      <c r="W3">
-        <v>1.2</v>
       </c>
     </row>
   </sheetData>
